--- a/public/Plantilla13.xlsx
+++ b/public/Plantilla13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\hg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="download (7)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -48,9 +48,6 @@
     <t>Turno</t>
   </si>
   <si>
-    <t>Negocios</t>
-  </si>
-  <si>
     <t>Biblioteca Gómez Morin</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>SEP-DIC 2016</t>
+  </si>
+  <si>
+    <t>Sistemas</t>
   </si>
 </sst>
 </file>
@@ -914,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -933,10 +933,10 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -963,10 +963,10 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
